--- a/data/GDP/by industry/gdp by industry.xlsx
+++ b/data/GDP/by industry/gdp by industry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\inUCL\my_CASA\CASA0003-Viz\assignment\group\0003visualization\data\GDP\by industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98264C7A-8255-499B-8ADB-D6EA8DB6715A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E790AA9-F8C4-4165-949C-4720E5C48171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Economy</t>
   </si>
@@ -97,6 +97,270 @@
   <si>
     <t>Value-added of the services sector as percent of GDP.
 Services value-added refers to the gross output of services sectors, less the corresponding value of intermediate consumption. The industrial origin of value-added is determined by ISIC revision 4, where services corresponds to ISIC Sections G-U and includes wholesale and retail trade; repair of motor vehicles and motorcycles (G); transport and storage (H); accommodation and food service activities (I); information and communication (J); financial and insurance activities (K); real estate activities (L); professional, scientific, and technical activities (M); administrative and support service activities (N); public administration and defense; compulsory social security (O); education (P); human health and social work activities (Q); arts, entertainment, and recreation (R); other service activities (S); activities of households as employers; undifferentiated goods- and services-producing activities of households for own use (T); and activities of extraterritorial organizations and bodies (U).</t>
+  </si>
+  <si>
+    <t>'2000',</t>
+  </si>
+  <si>
+    <t>'2001',</t>
+  </si>
+  <si>
+    <t>'2002',</t>
+  </si>
+  <si>
+    <t>'2003',</t>
+  </si>
+  <si>
+    <t>'2004',</t>
+  </si>
+  <si>
+    <t>'2005',</t>
+  </si>
+  <si>
+    <t>'2006',</t>
+  </si>
+  <si>
+    <t>'2007',</t>
+  </si>
+  <si>
+    <t>'2008',</t>
+  </si>
+  <si>
+    <t>'2009',</t>
+  </si>
+  <si>
+    <t>'2010',</t>
+  </si>
+  <si>
+    <t>'2011',</t>
+  </si>
+  <si>
+    <t>'2012',</t>
+  </si>
+  <si>
+    <t>'2013',</t>
+  </si>
+  <si>
+    <t>'2014',</t>
+  </si>
+  <si>
+    <t>'2015',</t>
+  </si>
+  <si>
+    <t>'2016',</t>
+  </si>
+  <si>
+    <t>'2017',</t>
+  </si>
+  <si>
+    <t>'2018',</t>
+  </si>
+  <si>
+    <t>'2019',</t>
+  </si>
+  <si>
+    <t>'2020',</t>
+  </si>
+  <si>
+    <t>'2021',</t>
+  </si>
+  <si>
+    <t>0.09884,</t>
+  </si>
+  <si>
+    <t>0.08756,</t>
+  </si>
+  <si>
+    <t>0.07493,</t>
+  </si>
+  <si>
+    <t>0.0646,</t>
+  </si>
+  <si>
+    <t>0.05857,</t>
+  </si>
+  <si>
+    <t>0.05762,</t>
+  </si>
+  <si>
+    <t>0.051,</t>
+  </si>
+  <si>
+    <t>0.04545,</t>
+  </si>
+  <si>
+    <t>0.0437,</t>
+  </si>
+  <si>
+    <t>0.0428,</t>
+  </si>
+  <si>
+    <t>0.03825,</t>
+  </si>
+  <si>
+    <t>0.03669,</t>
+  </si>
+  <si>
+    <t>0.0353,</t>
+  </si>
+  <si>
+    <t>0.03648,</t>
+  </si>
+  <si>
+    <t>0.03653,</t>
+  </si>
+  <si>
+    <t>0.0346,</t>
+  </si>
+  <si>
+    <t>0.03363,</t>
+  </si>
+  <si>
+    <t>0.03276,</t>
+  </si>
+  <si>
+    <t>0.03179,</t>
+  </si>
+  <si>
+    <t>0.03401,</t>
+  </si>
+  <si>
+    <t>0.03478,</t>
+  </si>
+  <si>
+    <t>0.03558,</t>
+  </si>
+  <si>
+    <t>34.82106,</t>
+  </si>
+  <si>
+    <t>32.29967,</t>
+  </si>
+  <si>
+    <t>32.43431,</t>
+  </si>
+  <si>
+    <t>31.93841,</t>
+  </si>
+  <si>
+    <t>33.55911,</t>
+  </si>
+  <si>
+    <t>32.87524,</t>
+  </si>
+  <si>
+    <t>32.24201,</t>
+  </si>
+  <si>
+    <t>29.9291,</t>
+  </si>
+  <si>
+    <t>27.86289,</t>
+  </si>
+  <si>
+    <t>28.41936,</t>
+  </si>
+  <si>
+    <t>28.18147,</t>
+  </si>
+  <si>
+    <t>26.7815,</t>
+  </si>
+  <si>
+    <t>26.54478,</t>
+  </si>
+  <si>
+    <t>24.87572,</t>
+  </si>
+  <si>
+    <t>25.56206,</t>
+  </si>
+  <si>
+    <t>25.76389,</t>
+  </si>
+  <si>
+    <t>24.76422,</t>
+  </si>
+  <si>
+    <t>25.05609,</t>
+  </si>
+  <si>
+    <t>26.78784,</t>
+  </si>
+  <si>
+    <t>25.39482,</t>
+  </si>
+  <si>
+    <t>24.80282,</t>
+  </si>
+  <si>
+    <t>26.38436,</t>
+  </si>
+  <si>
+    <t>65.0801,</t>
+  </si>
+  <si>
+    <t>67.61277,</t>
+  </si>
+  <si>
+    <t>67.49075,</t>
+  </si>
+  <si>
+    <t>67.99699,</t>
+  </si>
+  <si>
+    <t>66.38232,</t>
+  </si>
+  <si>
+    <t>67.06714,</t>
+  </si>
+  <si>
+    <t>67.707,</t>
+  </si>
+  <si>
+    <t>70.02545,</t>
+  </si>
+  <si>
+    <t>72.09341,</t>
+  </si>
+  <si>
+    <t>71.53784,</t>
+  </si>
+  <si>
+    <t>71.78028,</t>
+  </si>
+  <si>
+    <t>73.18181,</t>
+  </si>
+  <si>
+    <t>73.41992,</t>
+  </si>
+  <si>
+    <t>75.08781,</t>
+  </si>
+  <si>
+    <t>74.4014,</t>
+  </si>
+  <si>
+    <t>74.20152,</t>
+  </si>
+  <si>
+    <t>75.20215,</t>
+  </si>
+  <si>
+    <t>74.91115,</t>
+  </si>
+  <si>
+    <t>73.18037,</t>
+  </si>
+  <si>
+    <t>74.57117,</t>
+  </si>
+  <si>
+    <t>75.1624,</t>
+  </si>
+  <si>
+    <t>73.58006,</t>
   </si>
 </sst>
 </file>
@@ -449,26 +713,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.53125" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="5.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -548,10 +813,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -631,10 +896,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -714,10 +979,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -793,6 +1058,638 @@
       </c>
       <c r="AA4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D7" t="str">
+        <f>CONCATENATE(D2,",")</f>
+        <v>0.09884,</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:Y9" si="0">CONCATENATE(E2,",")</f>
+        <v>0.08756,</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.07493,</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0646,</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05857,</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05762,</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.051,</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.04545,</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0437,</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0428,</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03825,</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03669,</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0353,</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03648,</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03653,</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0346,</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03363,</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03276,</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03179,</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03401,</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03478,</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03558,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D8" t="str">
+        <f t="shared" ref="D8:S9" si="1">CONCATENATE(D3,",")</f>
+        <v>34.82106,</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>32.29967,</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>32.43431,</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>31.93841,</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>33.55911,</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>32.87524,</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>32.24201,</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>29.9291,</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>27.86289,</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>28.41936,</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>28.18147,</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>26.7815,</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>26.54478,</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>24.87572,</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="1"/>
+        <v>25.56206,</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v>25.76389,</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="0"/>
+        <v>24.76422,</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="0"/>
+        <v>25.05609,</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="0"/>
+        <v>26.78784,</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="0"/>
+        <v>25.39482,</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="0"/>
+        <v>24.80282,</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
+        <v>26.38436,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>65.0801,</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>67.61277,</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>67.49075,</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>67.99699,</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>66.38232,</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>67.06714,</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>67.707,</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>70.02545,</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>72.09341,</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>71.53784,</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>71.78028,</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>73.18181,</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>73.41992,</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>75.08781,</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>74.4014,</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>74.20152,</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>75.20215,</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="0"/>
+        <v>74.91115,</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="0"/>
+        <v>73.18037,</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="0"/>
+        <v>74.57117,</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="0"/>
+        <v>75.1624,</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>73.58006,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s">
+        <v>82</v>
+      </c>
+      <c r="W12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" t="s">
+        <v>104</v>
+      </c>
+      <c r="W13" t="s">
+        <v>105</v>
+      </c>
+      <c r="X13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D15" t="str">
+        <f>CONCATENATE("'",D1,"'",",")</f>
+        <v>'2000',</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:Y15" si="2">CONCATENATE("'",E1,"'",",")</f>
+        <v>'2001',</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2002',</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2003',</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2004',</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2005',</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2006',</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2007',</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2008',</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2009',</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2010',</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2011',</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2012',</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2013',</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2014',</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2015',</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2016',</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2017',</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2018',</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2019',</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2020',</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="2"/>
+        <v>'2021',</v>
+      </c>
+    </row>
+    <row r="17" spans="4:25" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
